--- a/contenedores-vacios.xlsx
+++ b/contenedores-vacios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaute\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\Ship Form\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035ED373-14F6-44C3-AC3C-FA1F372DAEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
   <si>
     <t>BMOU9332008</t>
   </si>
@@ -186,9 +187,6 @@
   </si>
   <si>
     <t>______________</t>
-  </si>
-  <si>
-    <t>GUATEMALA MARITIMA S.A.</t>
   </si>
   <si>
     <t>Buque: MV XIN HAI TONG 26 Viaje: A2131</t>
@@ -203,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -647,49 +645,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="5" width="13.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="2:12" ht="12" customHeight="1">
       <c r="B2" s="2"/>
-      <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8"/>
       <c r="F2" s="2"/>
       <c r="G2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
